--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.03006163268641</v>
+        <v>2.628170333333333</v>
       </c>
       <c r="H2">
-        <v>2.03006163268641</v>
+        <v>7.884511</v>
       </c>
       <c r="I2">
-        <v>0.03412973557768682</v>
+        <v>0.04342563178849849</v>
       </c>
       <c r="J2">
-        <v>0.03412973557768682</v>
+        <v>0.04342563178849849</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.6663311704881</v>
+        <v>49.33145033333333</v>
       </c>
       <c r="N2">
-        <v>48.6663311704881</v>
+        <v>147.994351</v>
       </c>
       <c r="O2">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="P2">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="Q2">
-        <v>98.7956517128186</v>
+        <v>129.6514542663734</v>
       </c>
       <c r="R2">
-        <v>98.7956517128186</v>
+        <v>1166.863088397361</v>
       </c>
       <c r="S2">
-        <v>0.03410687788577263</v>
+        <v>0.04338194801693834</v>
       </c>
       <c r="T2">
-        <v>0.03410687788577263</v>
+        <v>0.04338194801693834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.03006163268641</v>
+        <v>2.628170333333333</v>
       </c>
       <c r="H3">
-        <v>2.03006163268641</v>
+        <v>7.884511</v>
       </c>
       <c r="I3">
-        <v>0.03412973557768682</v>
+        <v>0.04342563178849849</v>
       </c>
       <c r="J3">
-        <v>0.03412973557768682</v>
+        <v>0.04342563178849849</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0326151226217305</v>
+        <v>0.04967466666666667</v>
       </c>
       <c r="N3">
-        <v>0.0326151226217305</v>
+        <v>0.149024</v>
       </c>
       <c r="O3">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="P3">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="Q3">
-        <v>0.06621070907973767</v>
+        <v>0.1305534852515556</v>
       </c>
       <c r="R3">
-        <v>0.06621070907973767</v>
+        <v>1.174981367264</v>
       </c>
       <c r="S3">
-        <v>2.285769191418803E-05</v>
+        <v>4.368377156014705E-05</v>
       </c>
       <c r="T3">
-        <v>2.285769191418803E-05</v>
+        <v>4.368377156014705E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.7713517370918</v>
+        <v>56.014214</v>
       </c>
       <c r="H4">
-        <v>55.7713517370918</v>
+        <v>168.042642</v>
       </c>
       <c r="I4">
-        <v>0.9376372898975631</v>
+        <v>0.9255308155773353</v>
       </c>
       <c r="J4">
-        <v>0.9376372898975631</v>
+        <v>0.9255308155773353</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.6663311704881</v>
+        <v>49.33145033333333</v>
       </c>
       <c r="N4">
-        <v>48.6663311704881</v>
+        <v>147.994351</v>
       </c>
       <c r="O4">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="P4">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="Q4">
-        <v>2714.187073463086</v>
+        <v>2763.262415901705</v>
       </c>
       <c r="R4">
-        <v>2714.187073463086</v>
+        <v>24869.36174311534</v>
       </c>
       <c r="S4">
-        <v>0.9370093265120588</v>
+        <v>0.9245997830268713</v>
       </c>
       <c r="T4">
-        <v>0.9370093265120588</v>
+        <v>0.9245997830268713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.7713517370918</v>
+        <v>56.014214</v>
       </c>
       <c r="H5">
-        <v>55.7713517370918</v>
+        <v>168.042642</v>
       </c>
       <c r="I5">
-        <v>0.9376372898975631</v>
+        <v>0.9255308155773353</v>
       </c>
       <c r="J5">
-        <v>0.9376372898975631</v>
+        <v>0.9255308155773353</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0326151226217305</v>
+        <v>0.04967466666666667</v>
       </c>
       <c r="N5">
-        <v>0.0326151226217305</v>
+        <v>0.149024</v>
       </c>
       <c r="O5">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="P5">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="Q5">
-        <v>1.818989475684911</v>
+        <v>2.782487409045333</v>
       </c>
       <c r="R5">
-        <v>1.818989475684911</v>
+        <v>25.042386681408</v>
       </c>
       <c r="S5">
-        <v>0.0006279633855043567</v>
+        <v>0.0009310325504640137</v>
       </c>
       <c r="T5">
-        <v>0.0006279633855043567</v>
+        <v>0.0009310325504640137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +773,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -779,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.67931797270585</v>
+        <v>0.003554</v>
       </c>
       <c r="H6">
-        <v>1.67931797270585</v>
+        <v>0.010662</v>
       </c>
       <c r="I6">
-        <v>0.02823297452474998</v>
+        <v>5.872324689875768E-05</v>
       </c>
       <c r="J6">
-        <v>0.02823297452474998</v>
+        <v>5.872324689875769E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.6663311704881</v>
+        <v>49.33145033333333</v>
       </c>
       <c r="N6">
-        <v>48.6663311704881</v>
+        <v>147.994351</v>
       </c>
       <c r="O6">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="P6">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="Q6">
-        <v>81.7262446002556</v>
+        <v>0.1753239744846666</v>
       </c>
       <c r="R6">
-        <v>81.7262446002556</v>
+        <v>1.577915770362</v>
       </c>
       <c r="S6">
-        <v>0.02821406606786965</v>
+        <v>5.866417457678689E-05</v>
       </c>
       <c r="T6">
-        <v>0.02821406606786965</v>
+        <v>5.86641745767869E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,309 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.003554</v>
+      </c>
+      <c r="H7">
+        <v>0.010662</v>
+      </c>
+      <c r="I7">
+        <v>5.872324689875768E-05</v>
+      </c>
+      <c r="J7">
+        <v>5.872324689875769E-05</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.04967466666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.149024</v>
+      </c>
+      <c r="O7">
+        <v>0.001005944410271468</v>
+      </c>
+      <c r="P7">
+        <v>0.001005944410271468</v>
+      </c>
+      <c r="Q7">
+        <v>0.0001765437653333333</v>
+      </c>
+      <c r="R7">
+        <v>0.001588893888</v>
+      </c>
+      <c r="S7">
+        <v>5.907232197079664E-08</v>
+      </c>
+      <c r="T7">
+        <v>5.907232197079664E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.06141066666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.184232</v>
+      </c>
+      <c r="I8">
+        <v>0.001014697169635334</v>
+      </c>
+      <c r="J8">
+        <v>0.001014697169635334</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>49.33145033333333</v>
+      </c>
+      <c r="N8">
+        <v>147.994351</v>
+      </c>
+      <c r="O8">
+        <v>0.9989940555897285</v>
+      </c>
+      <c r="P8">
+        <v>0.9989940555897285</v>
+      </c>
+      <c r="Q8">
+        <v>3.029477252603555</v>
+      </c>
+      <c r="R8">
+        <v>27.265295273432</v>
+      </c>
+      <c r="S8">
+        <v>0.001013676440689421</v>
+      </c>
+      <c r="T8">
+        <v>0.001013676440689421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.67931797270585</v>
-      </c>
-      <c r="H7">
-        <v>1.67931797270585</v>
-      </c>
-      <c r="I7">
-        <v>0.02823297452474998</v>
-      </c>
-      <c r="J7">
-        <v>0.02823297452474998</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.0326151226217305</v>
-      </c>
-      <c r="N7">
-        <v>0.0326151226217305</v>
-      </c>
-      <c r="O7">
-        <v>0.0006697295342988776</v>
-      </c>
-      <c r="P7">
-        <v>0.0006697295342988776</v>
-      </c>
-      <c r="Q7">
-        <v>0.05477116160067717</v>
-      </c>
-      <c r="R7">
-        <v>0.05477116160067717</v>
-      </c>
-      <c r="S7">
-        <v>1.890845688033288E-05</v>
-      </c>
-      <c r="T7">
-        <v>1.890845688033288E-05</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.06141066666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.184232</v>
+      </c>
+      <c r="I9">
+        <v>0.001014697169635334</v>
+      </c>
+      <c r="J9">
+        <v>0.001014697169635334</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.04967466666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.149024</v>
+      </c>
+      <c r="O9">
+        <v>0.001005944410271468</v>
+      </c>
+      <c r="P9">
+        <v>0.001005944410271468</v>
+      </c>
+      <c r="Q9">
+        <v>0.003050554396444444</v>
+      </c>
+      <c r="R9">
+        <v>0.02745498956799999</v>
+      </c>
+      <c r="S9">
+        <v>1.020728945912944E-06</v>
+      </c>
+      <c r="T9">
+        <v>1.020728945912944E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.813827666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.441483</v>
+      </c>
+      <c r="I10">
+        <v>0.02997013221763203</v>
+      </c>
+      <c r="J10">
+        <v>0.02997013221763203</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>49.33145033333333</v>
+      </c>
+      <c r="N10">
+        <v>147.994351</v>
+      </c>
+      <c r="O10">
+        <v>0.9989940555897285</v>
+      </c>
+      <c r="P10">
+        <v>0.9989940555897285</v>
+      </c>
+      <c r="Q10">
+        <v>89.47874945139255</v>
+      </c>
+      <c r="R10">
+        <v>805.3087450625329</v>
+      </c>
+      <c r="S10">
+        <v>0.0299399839306526</v>
+      </c>
+      <c r="T10">
+        <v>0.02993998393065261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.813827666666667</v>
+      </c>
+      <c r="H11">
+        <v>5.441483</v>
+      </c>
+      <c r="I11">
+        <v>0.02997013221763203</v>
+      </c>
+      <c r="J11">
+        <v>0.02997013221763203</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.04967466666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.149024</v>
+      </c>
+      <c r="O11">
+        <v>0.001005944410271468</v>
+      </c>
+      <c r="P11">
+        <v>0.001005944410271468</v>
+      </c>
+      <c r="Q11">
+        <v>0.09010128473244444</v>
+      </c>
+      <c r="R11">
+        <v>0.8109115625919999</v>
+      </c>
+      <c r="S11">
+        <v>3.014828697942379E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.014828697942379E-05</v>
       </c>
     </row>
   </sheetData>
